--- a/nmt/астатистика/p_201_1200_21K_nart.xlsx
+++ b/nmt/астатистика/p_201_1200_21K_nart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="522">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -1937,11 +1937,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.99"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E2" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "OK")/250</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "A")/250</f>
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E4" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "B")/250</f>
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2050,7 +2050,9 @@
       <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="14" t="n">
         <v>14</v>
       </c>
@@ -2062,7 +2064,9 @@
       <c r="B10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2078,9 @@
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="14" t="n">
         <v>6</v>
       </c>
@@ -2086,7 +2092,9 @@
       <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="14" t="n">
         <v>6</v>
       </c>
@@ -2098,7 +2106,9 @@
       <c r="B13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="14" t="n">
         <v>4</v>
       </c>
@@ -2110,7 +2120,9 @@
       <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
       </c>
@@ -2122,7 +2134,9 @@
       <c r="B15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>30</v>
       </c>
@@ -2134,7 +2148,9 @@
       <c r="B16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="14" t="n">
         <v>4</v>
       </c>
@@ -2146,7 +2162,9 @@
       <c r="B17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="14" t="n">
         <v>4</v>
       </c>
@@ -2158,7 +2176,9 @@
       <c r="B18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="14" t="s">
         <v>30</v>
       </c>
@@ -2170,7 +2190,9 @@
       <c r="B19" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="14" t="n">
         <v>10</v>
       </c>
@@ -2182,7 +2204,9 @@
       <c r="B20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" s="14" t="n">
         <v>10</v>
       </c>
@@ -2194,7 +2218,9 @@
       <c r="B21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D21" s="14" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2232,9 @@
       <c r="B22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D22" s="14" t="n">
         <v>10</v>
       </c>
@@ -2218,7 +2246,9 @@
       <c r="B23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D23" s="14" t="s">
         <v>18</v>
       </c>
@@ -2230,7 +2260,9 @@
       <c r="B24" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="14" t="n">
         <v>10</v>
       </c>
@@ -2242,7 +2274,9 @@
       <c r="B25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
@@ -2254,7 +2288,9 @@
       <c r="B26" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D26" s="14" t="s">
         <v>18</v>
       </c>
@@ -2266,7 +2302,9 @@
       <c r="B27" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D27" s="14" t="s">
         <v>30</v>
       </c>
@@ -2278,7 +2316,9 @@
       <c r="B28" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="14" t="s">
         <v>18</v>
       </c>
@@ -2290,7 +2330,9 @@
       <c r="B29" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D29" s="14" t="s">
         <v>18</v>
       </c>
@@ -2302,7 +2344,9 @@
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D30" s="14" t="s">
         <v>61</v>
       </c>
@@ -2314,7 +2358,9 @@
       <c r="B31" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D31" s="14" t="n">
         <v>10</v>
       </c>
@@ -2326,7 +2372,9 @@
       <c r="B32" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D32" s="14" t="n">
         <v>5</v>
       </c>
@@ -2338,7 +2386,9 @@
       <c r="B33" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" s="14" t="s">
         <v>18</v>
       </c>
@@ -2350,7 +2400,9 @@
       <c r="B34" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D34" s="14" t="n">
         <v>6</v>
       </c>
@@ -2362,7 +2414,9 @@
       <c r="B35" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D35" s="14" t="n">
         <v>14</v>
       </c>
@@ -2374,7 +2428,9 @@
       <c r="B36" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="14" t="s">
         <v>30</v>
       </c>
@@ -2386,7 +2442,9 @@
       <c r="B37" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D37" s="14" t="s">
         <v>30</v>
       </c>
@@ -2398,7 +2456,9 @@
       <c r="B38" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D38" s="14" t="n">
         <v>13</v>
       </c>
@@ -2410,7 +2470,9 @@
       <c r="B39" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D39" s="14" t="s">
         <v>18</v>
       </c>
@@ -2422,7 +2484,9 @@
       <c r="B40" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D40" s="14" t="n">
         <v>5</v>
       </c>

--- a/nmt/астатистика/p_201_1200_21K_nart.xlsx
+++ b/nmt/астатистика/p_201_1200_21K_nart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="522">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -1937,11 +1937,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.99"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E2" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "OK")/250</f>
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "A")/250</f>
-        <v>0.024</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2498,7 +2498,9 @@
       <c r="B41" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D41" s="14" t="s">
         <v>18</v>
       </c>
@@ -2510,7 +2512,9 @@
       <c r="B42" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D42" s="14" t="s">
         <v>86</v>
       </c>
@@ -2522,7 +2526,9 @@
       <c r="B43" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D43" s="14" t="n">
         <v>12</v>
       </c>
@@ -2534,7 +2540,9 @@
       <c r="B44" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D44" s="14" t="s">
         <v>61</v>
       </c>
@@ -2546,7 +2554,9 @@
       <c r="B45" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D45" s="14" t="s">
         <v>30</v>
       </c>
@@ -2558,7 +2568,9 @@
       <c r="B46" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D46" s="14" t="s">
         <v>18</v>
       </c>
@@ -2570,7 +2582,9 @@
       <c r="B47" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D47" s="14" t="n">
         <v>13</v>
       </c>
@@ -2582,7 +2596,9 @@
       <c r="B48" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D48" s="14" t="s">
         <v>30</v>
       </c>
@@ -2594,7 +2610,9 @@
       <c r="B49" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D49" s="14" t="s">
         <v>18</v>
       </c>
@@ -2606,7 +2624,9 @@
       <c r="B50" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D50" s="14" t="n">
         <v>12</v>
       </c>
@@ -2618,7 +2638,9 @@
       <c r="B51" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D51" s="14" t="n">
         <v>1</v>
       </c>
@@ -2630,7 +2652,9 @@
       <c r="B52" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D52" s="14" t="n">
         <v>6</v>
       </c>
@@ -2642,7 +2666,9 @@
       <c r="B53" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D53" s="14" t="s">
         <v>18</v>
       </c>

--- a/nmt/астатистика/p_201_1200_21K_nart.xlsx
+++ b/nmt/астатистика/p_201_1200_21K_nart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="522">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -1937,11 +1937,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B50" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.99"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E2" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "OK")/250</f>
-        <v>0.14</v>
+        <v>0.176</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "A")/250</f>
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2680,7 +2680,9 @@
       <c r="B54" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D54" s="14" t="s">
         <v>18</v>
       </c>
@@ -2692,7 +2694,9 @@
       <c r="B55" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" s="14" t="n">
         <v>10</v>
       </c>
@@ -2704,7 +2708,9 @@
       <c r="B56" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D56" s="14" t="s">
         <v>18</v>
       </c>
@@ -2716,7 +2722,9 @@
       <c r="B57" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D57" s="14" t="n">
         <v>4</v>
       </c>
@@ -2728,7 +2736,9 @@
       <c r="B58" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="14" t="s">
         <v>61</v>
       </c>
@@ -2740,7 +2750,9 @@
       <c r="B59" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D59" s="14" t="n">
         <v>6</v>
       </c>
@@ -2752,7 +2764,9 @@
       <c r="B60" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D60" s="14" t="s">
         <v>30</v>
       </c>
@@ -2764,7 +2778,9 @@
       <c r="B61" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D61" s="14" t="s">
         <v>30</v>
       </c>
@@ -2776,7 +2792,9 @@
       <c r="B62" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D62" s="14" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +2806,9 @@
       <c r="B63" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D63" s="14" t="s">
         <v>30</v>
       </c>

--- a/nmt/астатистика/p_201_1200_21K_nart.xlsx
+++ b/nmt/астатистика/p_201_1200_21K_nart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="522">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -1937,11 +1937,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B50" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.99"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E2" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "OK")/250</f>
-        <v>0.176</v>
+        <v>0.212</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "A")/250</f>
-        <v>0.04</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E5" s="10" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "C")/250</f>
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2820,7 +2820,9 @@
       <c r="B64" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D64" s="14" t="s">
         <v>61</v>
       </c>
@@ -2832,7 +2834,9 @@
       <c r="B65" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D65" s="14" t="n">
         <v>10</v>
       </c>
@@ -2844,7 +2848,9 @@
       <c r="B66" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D66" s="14" t="s">
         <v>18</v>
       </c>
@@ -2856,7 +2862,9 @@
       <c r="B67" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D67" s="14" t="n">
         <v>15</v>
       </c>
@@ -2868,7 +2876,9 @@
       <c r="B68" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D68" s="14" t="s">
         <v>61</v>
       </c>
@@ -2880,7 +2890,9 @@
       <c r="B69" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D69" s="14" t="s">
         <v>18</v>
       </c>
@@ -2892,7 +2904,9 @@
       <c r="B70" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D70" s="14" t="n">
         <v>4</v>
       </c>
@@ -2904,7 +2918,9 @@
       <c r="B71" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D71" s="14" t="n">
         <v>13</v>
       </c>
@@ -2916,7 +2932,9 @@
       <c r="B72" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="D72" s="14" t="s">
         <v>61</v>
       </c>
@@ -2928,7 +2946,9 @@
       <c r="B73" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D73" s="14" t="s">
         <v>18</v>
       </c>
@@ -2940,7 +2960,9 @@
       <c r="B74" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D74" s="14" t="n">
         <v>10</v>
       </c>
@@ -2952,7 +2974,9 @@
       <c r="B75" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D75" s="14" t="s">
         <v>61</v>
       </c>
